--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>116.9511416666667</v>
+        <v>19.515399</v>
       </c>
       <c r="H2">
-        <v>350.853425</v>
+        <v>58.546197</v>
       </c>
       <c r="I2">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="J2">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="N2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="O2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="P2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="Q2">
-        <v>2642.496699951622</v>
+        <v>151.069269605571</v>
       </c>
       <c r="R2">
-        <v>23782.4702995646</v>
+        <v>1359.623426450139</v>
       </c>
       <c r="S2">
-        <v>0.3045872110244155</v>
+        <v>0.05159053691576445</v>
       </c>
       <c r="T2">
-        <v>0.3045872110244155</v>
+        <v>0.05159053691576446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>116.9511416666667</v>
+        <v>19.515399</v>
       </c>
       <c r="H3">
-        <v>350.853425</v>
+        <v>58.546197</v>
       </c>
       <c r="I3">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="J3">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="O3">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="P3">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="Q3">
-        <v>35.62316181681111</v>
+        <v>5.944364514868</v>
       </c>
       <c r="R3">
-        <v>320.6084563513</v>
+        <v>53.499280633812</v>
       </c>
       <c r="S3">
-        <v>0.004106101440297955</v>
+        <v>0.002030015487238104</v>
       </c>
       <c r="T3">
-        <v>0.004106101440297955</v>
+        <v>0.002030015487238105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>116.9511416666667</v>
+        <v>19.515399</v>
       </c>
       <c r="H4">
-        <v>350.853425</v>
+        <v>58.546197</v>
       </c>
       <c r="I4">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="J4">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="N4">
         <v>22.964118</v>
       </c>
       <c r="O4">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="P4">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="Q4">
-        <v>895.2266058226834</v>
+        <v>149.384641817694</v>
       </c>
       <c r="R4">
-        <v>8057.03945240415</v>
+        <v>1344.461776359246</v>
       </c>
       <c r="S4">
-        <v>0.1031882367563134</v>
+        <v>0.05101523227368399</v>
       </c>
       <c r="T4">
-        <v>0.1031882367563134</v>
+        <v>0.05101523227368399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.0753813333334</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="H5">
-        <v>399.2261440000001</v>
+        <v>399.226144</v>
       </c>
       <c r="I5">
-        <v>0.468668312644395</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="J5">
-        <v>0.4686683126443951</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="N5">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="O5">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="P5">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="Q5">
-        <v>3006.821917313223</v>
+        <v>1030.140386087392</v>
       </c>
       <c r="R5">
-        <v>27061.39725581901</v>
+        <v>9271.263474786527</v>
       </c>
       <c r="S5">
-        <v>0.346581133614391</v>
+        <v>0.3517955422411176</v>
       </c>
       <c r="T5">
-        <v>0.346581133614391</v>
+        <v>0.3517955422411176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>133.0753813333334</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="H6">
-        <v>399.2261440000001</v>
+        <v>399.226144</v>
       </c>
       <c r="I6">
-        <v>0.468668312644395</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="J6">
-        <v>0.4686683126443951</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="O6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="P6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="Q6">
         <v>40.53458372029156</v>
       </c>
       <c r="R6">
-        <v>364.8112534826241</v>
+        <v>364.811253482624</v>
       </c>
       <c r="S6">
-        <v>0.004672216167999498</v>
+        <v>0.01384266266227932</v>
       </c>
       <c r="T6">
-        <v>0.004672216167999498</v>
+        <v>0.01384266266227932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>133.0753813333334</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="H7">
-        <v>399.2261440000001</v>
+        <v>399.226144</v>
       </c>
       <c r="I7">
-        <v>0.468668312644395</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="J7">
-        <v>0.4686683126443951</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="N7">
         <v>22.964118</v>
       </c>
       <c r="O7">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="P7">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="Q7">
         <v>1018.652919944555</v>
@@ -880,10 +880,10 @@
         <v>9167.876279500993</v>
       </c>
       <c r="S7">
-        <v>0.1174149628620045</v>
+        <v>0.3478725435554287</v>
       </c>
       <c r="T7">
-        <v>0.1174149628620045</v>
+        <v>0.3478725435554287</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>101.751317</v>
       </c>
       <c r="I8">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="J8">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="N8">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="O8">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="P8">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="Q8">
-        <v>766.352842040038</v>
+        <v>262.553298561731</v>
       </c>
       <c r="R8">
-        <v>6897.175578360343</v>
+        <v>2362.979687055579</v>
       </c>
       <c r="S8">
-        <v>0.08833361071818294</v>
+        <v>0.0896626142243902</v>
       </c>
       <c r="T8">
-        <v>0.08833361071818295</v>
+        <v>0.0896626142243902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>101.751317</v>
       </c>
       <c r="I9">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="J9">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="O9">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="P9">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="Q9">
         <v>10.33110516325911</v>
@@ -1004,10 +1004,10 @@
         <v>92.97994646933201</v>
       </c>
       <c r="S9">
-        <v>0.001190814167728059</v>
+        <v>0.003528098492150974</v>
       </c>
       <c r="T9">
-        <v>0.001190814167728059</v>
+        <v>0.003528098492150974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>101.751317</v>
       </c>
       <c r="I10">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="J10">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="N10">
         <v>22.964118</v>
       </c>
       <c r="O10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="P10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="Q10">
         <v>259.6254722492673</v>
@@ -1066,10 +1066,10 @@
         <v>2336.629250243406</v>
       </c>
       <c r="S10">
-        <v>0.02992571324866701</v>
+        <v>0.08866275414794662</v>
       </c>
       <c r="T10">
-        <v>0.02992571324866702</v>
+        <v>0.08866275414794662</v>
       </c>
     </row>
   </sheetData>
